--- a/public/tmp/invoice_master.xlsx
+++ b/public/tmp/invoice_master.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SystemUse\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel2\public\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26625" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26625" windowHeight="11085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="送り状作成用" sheetId="1" r:id="rId1"/>
     <sheet name="納品書" sheetId="2" r:id="rId2"/>
+    <sheet name="作業指示書" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品書!$A$1:$E$25</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>送り状種類</t>
   </si>
@@ -185,12 +186,111 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>機材リスト</t>
+    <rPh sb="0" eb="2">
+      <t>キザイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>到着希望日</t>
+    <rPh sb="0" eb="5">
+      <t>トウチャクキボウビ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>発送（予定）日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セミナー開催日</t>
+    <rPh sb="4" eb="7">
+      <t>カイサイビ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セミナー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>予約No.</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>完了確認</t>
+    <rPh sb="0" eb="4">
+      <t>カンリョウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>発送</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メンテナンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>伝票出力</t>
+    <rPh sb="0" eb="4">
+      <t>デンピョウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PC整備出荷 作業指示書</t>
+    <rPh sb="2" eb="4">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シジショ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +484,61 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,8 +736,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -740,6 +905,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,64 +1192,139 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="28" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1415,197 +1797,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1617,4 +1999,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="109" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>